--- a/블로그.xlsx
+++ b/블로그.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crowdparti\PycharmProjects\Send_mails\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC587B03-33A2-4975-821E-6C131CD91CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B20C6F6-DF74-414B-BA44-EDFA23DE1BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="65115" yWindow="4380" windowWidth="6060" windowHeight="3195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,20 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>닉네임</t>
+    <t>name</t>
   </si>
   <si>
-    <t>메일</t>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlahatnr@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>mail</t>
   </si>
 </sst>
 </file>
@@ -452,11 +444,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CE38C7-0D71-407F-963F-387B320B6836}">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0FE145-AC47-437D-951A-1D23C2D6B4FF}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -470,156 +462,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/블로그.xlsx
+++ b/블로그.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crowdparti\PycharmProjects\Send_mails\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B20C6F6-DF74-414B-BA44-EDFA23DE1BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01043EEA-A025-4860-BF01-B5EF5B524B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="0" windowWidth="21795" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,12 +20,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>name</t>
   </si>
   <si>
     <t>mail</t>
+  </si>
+  <si>
+    <t>치섭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlahatnr@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -448,7 +456,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -462,11 +470,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="B2" s="2"/>
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{8DD804B9-128E-439D-9F8B-E2F0EDFAFCDC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
 </worksheet>
 </file>